--- a/Documents/TWIX_SPRINT_11-11-13.xlsx
+++ b/Documents/TWIX_SPRINT_11-11-13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,55 +996,55 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.0</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-10.0</c:v>
+                  <c:v>-14.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-14.0</c:v>
+                  <c:v>-18.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19.0</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-23.0</c:v>
+                  <c:v>-27.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-27.0</c:v>
+                  <c:v>-31.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-31.0</c:v>
+                  <c:v>-35.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-36.0</c:v>
+                  <c:v>-40.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-40.0</c:v>
+                  <c:v>-44.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-44.0</c:v>
+                  <c:v>-48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,11 +1124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2080543944"/>
-        <c:axId val="2088175480"/>
+        <c:axId val="2132589544"/>
+        <c:axId val="2132433112"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2080543944"/>
+        <c:axId val="2132589544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1157,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088175480"/>
+        <c:crossAx val="2132433112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1165,7 +1165,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088175480"/>
+        <c:axId val="2132433112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080543944"/>
+        <c:crossAx val="2132589544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1552,10 +1552,10 @@
   <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1718,7 +1718,6 @@
         <v>6</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I33" si="1">IF((H3&gt;G3),($H3-(SUM($J3:$AA3))),($G3-(SUM($J3:$AA3))))</f>
         <v>0</v>
       </c>
       <c r="J3" s="17">
@@ -1782,7 +1781,6 @@
         <v>3</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="20"/>
@@ -1836,7 +1834,6 @@
         <v>3</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="20"/>
@@ -1941,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I3:I33" si="1">IF((H7&gt;G7),($H7-(SUM($J7:$AA7))),($G7-(SUM($J7:$AA7))))</f>
         <v>0</v>
       </c>
       <c r="J7" s="20"/>
@@ -2101,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
@@ -2154,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
@@ -2207,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
@@ -2258,8 +2255,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
@@ -2310,8 +2306,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
@@ -2364,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
@@ -2470,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
@@ -3093,7 +3088,7 @@
       </c>
       <c r="I34" s="32">
         <f>SUM(I3:I33)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" s="33">
         <f t="shared" ref="J34:AA34" si="2">SUM(J3:J18)</f>
@@ -3179,7 +3174,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="37">
         <f>G34-SUM(J35:AA35)</f>
-        <v>-44</v>
+        <v>-48</v>
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
@@ -3187,25 +3182,25 @@
         <v>5</v>
       </c>
       <c r="K35" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" s="7">
         <v>5</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" s="7">
         <v>5</v>
       </c>
       <c r="O35" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P35" s="7">
         <v>5</v>
       </c>
       <c r="Q35" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" s="7">
         <v>5</v>
@@ -3257,71 +3252,71 @@
       </c>
       <c r="K36" s="43">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L36" s="43">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M36" s="43">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N36" s="43">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O36" s="43">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P36" s="43">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="43">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="R36" s="43">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="S36" s="43">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="T36" s="43">
         <f t="shared" si="3"/>
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="U36" s="43">
         <f t="shared" si="3"/>
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="V36" s="43">
         <f t="shared" si="3"/>
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="W36" s="43">
         <f t="shared" si="3"/>
-        <v>-27</v>
+        <v>-31</v>
       </c>
       <c r="X36" s="43">
         <f t="shared" si="3"/>
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="Y36" s="43">
         <f t="shared" si="3"/>
-        <v>-36</v>
+        <v>-40</v>
       </c>
       <c r="Z36" s="43">
         <f>Y36-Z35</f>
-        <v>-40</v>
+        <v>-44</v>
       </c>
       <c r="AA36" s="43">
         <f t="shared" si="3"/>
-        <v>-44</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="12" customHeight="1">
